--- a/data/Stranieri Roma 2016 3.xlsx
+++ b/data/Stranieri Roma 2016 3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="378">
   <si>
     <t>Cittadinanza</t>
   </si>
@@ -32,7 +32,7 @@
     <t>MF</t>
   </si>
   <si>
-    <t>GEOCODED</t>
+    <t>Paesi</t>
   </si>
   <si>
     <t>ROMANIA</t>
@@ -239,7 +239,7 @@
     <t>REP. ISLAMICA DELL'IRAN</t>
   </si>
   <si>
-    <t>41.15981 -104.74519</t>
+    <t>48.87974 7.15614</t>
   </si>
   <si>
     <t>MALI</t>
@@ -251,7 +251,7 @@
     <t>REP. DI MACEDONIA</t>
   </si>
   <si>
-    <t>51.0773 38.64</t>
+    <t>40.79821 22.41334</t>
   </si>
   <si>
     <t>CUBA</t>
@@ -284,322 +284,325 @@
     <t>SOMALIA</t>
   </si>
   <si>
-    <t>4.9884 46.470299</t>
+    <t>32.638481 -83.426574</t>
   </si>
   <si>
     <t>GEORGIA</t>
   </si>
   <si>
-    <t>32.638481 -83.426574</t>
+    <t>36.652302 138.192093</t>
   </si>
   <si>
     <t>GIAPPONE</t>
   </si>
   <si>
-    <t>36.652302 138.192093</t>
+    <t>23.93034 -102.510521</t>
   </si>
   <si>
     <t>MESSICO</t>
   </si>
   <si>
-    <t>23.93034 -102.510521</t>
+    <t>-16.71007 -64.665314</t>
   </si>
   <si>
     <t>BOLIVIA</t>
   </si>
   <si>
-    <t>-16.71007 -64.665314</t>
+    <t>38.989273 35.43446</t>
   </si>
   <si>
     <t>TURCHIA</t>
   </si>
   <si>
-    <t>38.989273 35.43446</t>
+    <t>39.687378 -7.963023</t>
   </si>
   <si>
     <t>PORTOGALLO</t>
   </si>
   <si>
-    <t>39.687378 -7.963023</t>
+    <t>-35.189907 -65.143982</t>
   </si>
   <si>
     <t>ARGENTINA</t>
   </si>
   <si>
-    <t>-35.189907 -65.143982</t>
+    <t>36.775348 3.060066</t>
   </si>
   <si>
     <t>ALGERIA</t>
   </si>
   <si>
-    <t>36.775348 3.060066</t>
+    <t>39.478577 22.591492</t>
   </si>
   <si>
     <t>GRECIA</t>
   </si>
   <si>
-    <t>39.478577 22.591492</t>
+    <t>13.4752 -15.309</t>
   </si>
   <si>
     <t>GAMBIA</t>
   </si>
   <si>
-    <t>13.4752 -15.309</t>
+    <t>43.871162 20.603973</t>
   </si>
   <si>
     <t>KOSOVO</t>
   </si>
   <si>
-    <t>43.871162 20.603973</t>
+    <t>28.046301 16.366501</t>
   </si>
   <si>
     <t>LIBIA</t>
   </si>
   <si>
-    <t>28.046301 16.366501</t>
+    <t>45.133049 16.397858</t>
   </si>
   <si>
     <t>CROAZIA</t>
   </si>
   <si>
-    <t>45.133049 16.397858</t>
+    <t>32.885899 43.609299</t>
   </si>
   <si>
     <t>IRAQ</t>
   </si>
   <si>
-    <t>32.885899 43.609299</t>
+    <t>10.4559 -11.1874</t>
   </si>
   <si>
     <t>GUINEA</t>
   </si>
   <si>
-    <t>10.4559 -11.1874</t>
+    <t>35.880001 38.364201</t>
   </si>
   <si>
     <t>SIRIA</t>
   </si>
   <si>
-    <t>35.880001 38.364201</t>
-  </si>
-  <si>
     <t>REP. DEMOC. DEL CONGO</t>
   </si>
   <si>
-    <t>36.76535 -2.75966</t>
+    <t>13.724752 -88.870277</t>
   </si>
   <si>
     <t>EL SALVADOR</t>
   </si>
   <si>
-    <t>13.724752 -88.870277</t>
+    <t>6.3804 12.8155</t>
   </si>
   <si>
     <t>CAMEROUN</t>
   </si>
   <si>
-    <t>6.3804 12.8155</t>
+    <t>52.270329 5.614606</t>
   </si>
   <si>
     <t>PAESI BASSI</t>
   </si>
   <si>
-    <t>52.270329 5.614606</t>
+    <t>53.542892 28.05398</t>
   </si>
   <si>
     <t>BIELORUSSIA</t>
   </si>
   <si>
-    <t>53.542892 28.05398</t>
+    <t>-0.7366 113.485001</t>
   </si>
   <si>
     <t>INDONESIA</t>
   </si>
   <si>
-    <t>-0.7366 113.485001</t>
+    <t>44.96956 19.60526</t>
   </si>
   <si>
     <t>REP. DI SERBIA</t>
   </si>
   <si>
+    <t>7.159467 -66.245689</t>
+  </si>
+  <si>
     <t>VENEZUELA</t>
   </si>
   <si>
-    <t>7.159467 -66.245689</t>
+    <t>45.10126 8.28313</t>
   </si>
   <si>
     <t>REP. DI COREA</t>
   </si>
   <si>
+    <t>8.3446 -1.0442</t>
+  </si>
+  <si>
     <t>GHANA</t>
   </si>
   <si>
-    <t>8.3446 -1.0442</t>
+    <t>50.641949 4.659539</t>
   </si>
   <si>
     <t>BELGIO</t>
   </si>
   <si>
-    <t>50.641949 4.659539</t>
+    <t>53.177616 -8.14161</t>
   </si>
   <si>
     <t>IRLANDA</t>
   </si>
   <si>
-    <t>53.177616 -8.14161</t>
+    <t>47.586853 14.141437</t>
   </si>
   <si>
     <t>AUSTRIA</t>
   </si>
   <si>
-    <t>47.586853 14.141437</t>
+    <t>33.9417 35.923901</t>
   </si>
   <si>
     <t>LIBANO</t>
   </si>
   <si>
-    <t>33.9417 35.923901</t>
+    <t>13.178 30.231001</t>
   </si>
   <si>
     <t>SUDAN</t>
   </si>
   <si>
-    <t>13.178 30.231001</t>
+    <t>46.801807 8.235422</t>
   </si>
   <si>
     <t>SVIZZERA</t>
   </si>
   <si>
-    <t>46.801807 8.235422</t>
+    <t>1.7563 37.636902</t>
   </si>
   <si>
     <t>KENYA</t>
   </si>
   <si>
-    <t>1.7563 37.636902</t>
+    <t>14.818892 -86.600739</t>
   </si>
   <si>
     <t>HONDURAS</t>
   </si>
   <si>
-    <t>14.818892 -86.600739</t>
+    <t>-18.891399 46.482101</t>
   </si>
   <si>
     <t>MADAGASCAR</t>
   </si>
   <si>
-    <t>-18.891399 46.482101</t>
+    <t>62.835373 16.742456</t>
   </si>
   <si>
     <t>SVEZIA</t>
   </si>
   <si>
-    <t>62.835373 16.742456</t>
+    <t>12.3616 -1.5377</t>
   </si>
   <si>
     <t>BURKINA FASO</t>
   </si>
   <si>
-    <t>12.3616 -1.5377</t>
+    <t>-35.288689 -71.231911</t>
   </si>
   <si>
     <t>CILE</t>
   </si>
   <si>
-    <t>-35.288689 -71.231911</t>
+    <t>28.1553 84.196503</t>
   </si>
   <si>
     <t>NEPAL</t>
   </si>
   <si>
-    <t>28.1553 84.196503</t>
+    <t>15.0086 100.955704</t>
   </si>
   <si>
     <t>THAILANDIA</t>
   </si>
   <si>
-    <t>15.0086 100.955704</t>
+    <t>47.166401 19.413937</t>
   </si>
   <si>
     <t>UNGHERIA</t>
   </si>
   <si>
-    <t>47.166401 19.413937</t>
+    <t>48.708149 19.493172</t>
   </si>
   <si>
     <t>SLOVACCHIA</t>
   </si>
   <si>
-    <t>48.708149 19.493172</t>
+    <t>31.182882 34.811615</t>
   </si>
   <si>
     <t>ISRAELE</t>
   </si>
   <si>
-    <t>31.182882 34.811615</t>
+    <t>56.511018 -105.908203</t>
   </si>
   <si>
     <t>CANADA'</t>
   </si>
   <si>
-    <t>56.511018 -105.908203</t>
+    <t>16.7603 106.656601</t>
   </si>
   <si>
     <t>VIETNAM</t>
   </si>
   <si>
-    <t>16.7603 106.656601</t>
+    <t>8.148099 1.034999</t>
   </si>
   <si>
     <t>TOGO</t>
   </si>
   <si>
-    <t>8.148099 1.034999</t>
+    <t>-25.296141 -57.630913</t>
   </si>
   <si>
     <t>PARAGUAY</t>
   </si>
   <si>
-    <t>-25.296141 -57.630913</t>
-  </si>
-  <si>
     <t>REP. DEL CONGO</t>
   </si>
   <si>
+    <t>8.3199 -11.2615</t>
+  </si>
+  <si>
     <t>SIERRA LEONE</t>
   </si>
   <si>
-    <t>8.3199 -11.2615</t>
+    <t>12.839902 -85.033455</t>
   </si>
   <si>
     <t>NICARAGUA</t>
   </si>
   <si>
-    <t>12.839902 -85.033455</t>
+    <t>43.00322 17.47831</t>
   </si>
   <si>
     <t>REP. CECA</t>
   </si>
   <si>
-    <t>-26.89589 -49.08271</t>
+    <t>56.032433 9.317246</t>
   </si>
   <si>
     <t>DANIMARCA</t>
   </si>
   <si>
-    <t>56.032433 9.317246</t>
+    <t>55.335629 23.908211</t>
   </si>
   <si>
     <t>LITUANIA</t>
   </si>
   <si>
-    <t>55.335629 23.908211</t>
+    <t>-5.6088 34.5294</t>
   </si>
   <si>
     <t>TANZANIA</t>
   </si>
   <si>
-    <t>-5.6088 34.5294</t>
+    <t>-25.0 134.0</t>
   </si>
   <si>
     <t>AUSTRALIA</t>
@@ -608,415 +611,532 @@
     <t>OCEANIA</t>
   </si>
   <si>
-    <t>-25.0 134.0</t>
+    <t>10.7757 2.6937</t>
   </si>
   <si>
     <t>GUATEMALA</t>
   </si>
   <si>
-    <t>14.642516 -90.513138</t>
+    <t>-20.2833 57.549999</t>
   </si>
   <si>
     <t>BENIN</t>
   </si>
   <si>
-    <t>10.7757 2.6937</t>
+    <t>32.363876 37.794193</t>
   </si>
   <si>
     <t>MAURITIUS</t>
   </si>
   <si>
-    <t>-20.2833 57.549999</t>
+    <t>64.524025 26.287458</t>
   </si>
   <si>
     <t>GIORDANIA</t>
   </si>
   <si>
-    <t>32.363876 37.794193</t>
+    <t>-12.2971 17.2801</t>
   </si>
   <si>
     <t>FINLANDIA</t>
   </si>
   <si>
-    <t>64.524025 26.287458</t>
+    <t>42.700001 19.1</t>
   </si>
   <si>
     <t>ANGOLA</t>
   </si>
   <si>
-    <t>-12.2971 17.2801</t>
+    <t>32.0 35.25</t>
   </si>
   <si>
     <t>MONTENEGRO</t>
   </si>
   <si>
-    <t>42.700001 19.1</t>
+    <t>35.902241 14.413739</t>
   </si>
   <si>
     <t>PALESTINA</t>
   </si>
   <si>
-    <t>32.0 35.25</t>
+    <t>20.544201 -10.7954</t>
   </si>
   <si>
     <t>MALTA</t>
   </si>
   <si>
-    <t>35.902241 14.413739</t>
+    <t>1.4542 32.777599</t>
   </si>
   <si>
     <t>MAURITANIA</t>
   </si>
   <si>
-    <t>20.544201 -10.7954</t>
+    <t>61.299999 9.255</t>
   </si>
   <si>
     <t>UGANDA</t>
   </si>
   <si>
-    <t>1.4542 32.777599</t>
+    <t>-1.9519 30.059601</t>
   </si>
   <si>
     <t>NORVEGIA</t>
   </si>
   <si>
-    <t>61.299999 9.255</t>
+    <t>21.894199 96.0317</t>
   </si>
   <si>
     <t>RUANDA</t>
   </si>
   <si>
-    <t>-1.9519 30.059601</t>
+    <t>46.120007 14.82387</t>
   </si>
   <si>
     <t>MYANMAR</t>
   </si>
   <si>
-    <t>21.894199 96.0317</t>
+    <t>56.854328 24.931015</t>
   </si>
   <si>
     <t>SLOVENIA</t>
   </si>
   <si>
-    <t>46.120007 14.82387</t>
+    <t>4.536307 -75.672375</t>
   </si>
   <si>
     <t>LETTONIA</t>
   </si>
   <si>
-    <t>56.854328 24.931015</t>
+    <t>50.5093 64.914497</t>
   </si>
   <si>
     <t>ARMENIA</t>
   </si>
   <si>
-    <t>4.536307 -75.672375</t>
+    <t>-3.3949 29.6717</t>
   </si>
   <si>
     <t>KAZAKHSTAN</t>
   </si>
   <si>
-    <t>50.5093 64.914497</t>
+    <t>43.13892 12.38289</t>
   </si>
   <si>
     <t>BURUNDI</t>
   </si>
   <si>
-    <t>-3.3949 29.6717</t>
+    <t>-17.836901 35.421398</t>
   </si>
   <si>
     <t>REP. DI SAN MARINO</t>
   </si>
   <si>
-    <t>43.13892 12.38289</t>
+    <t>-32.804592 -56.028786</t>
   </si>
   <si>
     <t>MOZAMBICO</t>
   </si>
   <si>
-    <t>-17.836901 35.421398</t>
+    <t>9.970512 -84.196793</t>
   </si>
   <si>
     <t>URUGUAY</t>
   </si>
   <si>
-    <t>-32.804592 -56.028786</t>
+    <t>12.0673 -14.941</t>
   </si>
   <si>
     <t>COSTA RICA</t>
   </si>
   <si>
-    <t>9.970512 -84.196793</t>
+    <t>18.1989 7.6835</t>
   </si>
   <si>
     <t>GUINEA BISSAU</t>
   </si>
   <si>
-    <t>12.0673 -14.941</t>
+    <t>18.932878 -72.671188</t>
   </si>
   <si>
     <t>NIGER</t>
   </si>
   <si>
-    <t>18.1989 7.6835</t>
+    <t>-0.8403 12.5313</t>
   </si>
   <si>
     <t>HAITI</t>
   </si>
   <si>
-    <t>18.932878 -72.671188</t>
+    <t>41.224899 75.829803</t>
   </si>
   <si>
     <t>GABON</t>
   </si>
   <si>
-    <t>-0.8403 12.5313</t>
+    <t>2.5961 112.883904</t>
   </si>
   <si>
     <t>LIBERIA</t>
   </si>
   <si>
-    <t>10.634326 -85.441093</t>
+    <t>-13.1159 27.446899</t>
   </si>
   <si>
     <t>KIRGHIZISTAN</t>
   </si>
   <si>
-    <t>41.224899 75.829803</t>
+    <t>-28.741699 24.759501</t>
   </si>
   <si>
     <t>MALAYSIA</t>
   </si>
   <si>
-    <t>2.5961 112.883904</t>
+    <t>42.036598 63.279099</t>
   </si>
   <si>
     <t>ZAMBIA</t>
   </si>
   <si>
-    <t>-13.1159 27.446899</t>
+    <t>14.6742 45.5858</t>
   </si>
   <si>
     <t>SUD AFRICA</t>
   </si>
   <si>
-    <t>-28.741699 24.759501</t>
+    <t>-4.5833 55.666698</t>
   </si>
   <si>
     <t>UZBEKISTAN</t>
   </si>
   <si>
-    <t>42.036598 63.279099</t>
+    <t>-19.4471 29.815201</t>
   </si>
   <si>
     <t>YEMEN</t>
   </si>
   <si>
-    <t>14.6742 45.5858</t>
+    <t>40.237228 48.962463</t>
   </si>
   <si>
     <t>SEYCHELLES</t>
   </si>
   <si>
-    <t>-4.5833 55.666698</t>
+    <t>58.684872 25.840622</t>
   </si>
   <si>
     <t>ZIMBABWE</t>
   </si>
   <si>
-    <t>-19.4471 29.815201</t>
+    <t>-43.9674 170.489395</t>
   </si>
   <si>
     <t>AZERBAIGIAN</t>
   </si>
   <si>
-    <t>40.237228 48.962463</t>
+    <t>14.0228 18.520599</t>
   </si>
   <si>
     <t>ESTONIA</t>
   </si>
   <si>
-    <t>58.684872 25.840622</t>
+    <t>24.639299 46.686401</t>
   </si>
   <si>
     <t>NUOVA ZELANDA</t>
   </si>
   <si>
-    <t>-43.9674 170.489395</t>
+    <t>1.290453 103.852038</t>
   </si>
   <si>
     <t>CIAD</t>
   </si>
   <si>
-    <t>14.0228 18.520599</t>
+    <t>37.69728 29.64185</t>
   </si>
   <si>
     <t>ARABIA SAUDITA</t>
   </si>
   <si>
-    <t>24.639299 46.686401</t>
+    <t>29.3295 47.683102</t>
   </si>
   <si>
     <t>SINGAPORE</t>
   </si>
   <si>
-    <t>1.290453 103.852038</t>
-  </si>
-  <si>
     <t>REP. DEL SUD SUDAN</t>
   </si>
   <si>
-    <t>51.42308 -3.25549</t>
+    <t>23.534 120.559402</t>
   </si>
   <si>
     <t>KUWAIT</t>
   </si>
   <si>
-    <t>29.3295 47.683102</t>
+    <t>8.970743 -79.534454</t>
   </si>
   <si>
     <t>REP. CENTRAFRICANA</t>
   </si>
   <si>
+    <t>35.05386 33.239326</t>
+  </si>
+  <si>
     <t>TAIWAN</t>
   </si>
   <si>
-    <t>23.534 120.559402</t>
+    <t>49.611277 6.129799</t>
   </si>
   <si>
     <t>PANAMA</t>
   </si>
   <si>
-    <t>8.970743 -79.534454</t>
+    <t>64.990005 -18.59289</t>
   </si>
   <si>
     <t>CIPRO</t>
   </si>
   <si>
-    <t>35.05386 33.239326</t>
+    <t>-13.2942 34.419399</t>
   </si>
   <si>
     <t>LUSSEMBURGO</t>
   </si>
   <si>
-    <t>49.611277 6.129799</t>
+    <t>1.4777 10.375</t>
   </si>
   <si>
     <t>ISLANDA</t>
   </si>
   <si>
+    <t>-8.81557 13.24212</t>
+  </si>
+  <si>
     <t>MALAWI</t>
   </si>
   <si>
+    <t>10.418848 -61.293797</t>
+  </si>
+  <si>
     <t>GUINEA EQUATORIALE</t>
   </si>
   <si>
+    <t>45.8876 101.624496</t>
+  </si>
+  <si>
     <t>REP. POP. DEM. DI COREA</t>
   </si>
   <si>
+    <t>-23.816299 24.010799</t>
+  </si>
+  <si>
     <t>TIMOR ORIENTALE</t>
   </si>
   <si>
+    <t>12.4425 104.733704</t>
+  </si>
+  <si>
     <t>TRINIDAD E TOBAGO</t>
   </si>
   <si>
+    <t>0.2306 6.5853</t>
+  </si>
+  <si>
     <t>MONGOLIA</t>
   </si>
   <si>
+    <t>-13.5945 -172.611298</t>
+  </si>
+  <si>
     <t>BOTSWANA</t>
   </si>
   <si>
+    <t>-29.4498 27.994301</t>
+  </si>
+  <si>
     <t>CAMBOGIA</t>
   </si>
   <si>
+    <t>-17.850599 177.776901</t>
+  </si>
+  <si>
     <t>SAO TOME' E PRINCIPE</t>
   </si>
   <si>
+    <t>18.156088 -77.310661</t>
+  </si>
+  <si>
     <t>SAMOA</t>
   </si>
   <si>
+    <t>41.90417 12.44967</t>
+  </si>
+  <si>
     <t>LESOTHO</t>
   </si>
   <si>
+    <t>18.3468 103.781601</t>
+  </si>
+  <si>
     <t>FIGI</t>
   </si>
   <si>
+    <t>37.9426 58.384998</t>
+  </si>
+  <si>
     <t>GIAMAICA</t>
   </si>
   <si>
+    <t>-22.563801 17.0804</t>
+  </si>
+  <si>
     <t>STATO CITTA' DEL VATICANO</t>
   </si>
   <si>
+    <t>17.07753 -61.800068</t>
+  </si>
+  <si>
     <t>LAOS</t>
   </si>
   <si>
+    <t>24.695328 -78.050987</t>
+  </si>
+  <si>
     <t>TURKMENISTAN</t>
   </si>
   <si>
+    <t>13.894094 -60.965061</t>
+  </si>
+  <si>
     <t>NAMIBIA</t>
   </si>
   <si>
+    <t>4.799234 -58.981483</t>
+  </si>
+  <si>
     <t>ANTIGUA E BARBUDA</t>
   </si>
   <si>
+    <t>-15.4351 166.792206</t>
+  </si>
+  <si>
     <t>BAHAMAS</t>
   </si>
   <si>
+    <t>-11.6474 43.297699</t>
+  </si>
+  <si>
     <t>SANTA LUCIA</t>
   </si>
   <si>
+    <t>11.9159 42.419399</t>
+  </si>
+  <si>
     <t>GUYANA</t>
   </si>
   <si>
+    <t>-26.493601 31.297701</t>
+  </si>
+  <si>
     <t>VANUATU</t>
   </si>
   <si>
+    <t>13.167446 -59.555202</t>
+  </si>
+  <si>
     <t>COMORE</t>
   </si>
   <si>
+    <t>15.427289 -61.356377</t>
+  </si>
+  <si>
     <t>GIBUTI</t>
   </si>
   <si>
+    <t>37.18302 -3.602192</t>
+  </si>
+  <si>
     <t>SWAZILAND</t>
   </si>
   <si>
+    <t>43.731142 7.419758</t>
+  </si>
+  <si>
     <t>BARBADOS</t>
   </si>
   <si>
+    <t>36.99887 15.26293</t>
+  </si>
+  <si>
     <t>DOMINICA</t>
   </si>
   <si>
+    <t>-21.149 -175.319595</t>
+  </si>
+  <si>
     <t>GRENADA</t>
   </si>
   <si>
+    <t>38.431499 70.903503</t>
+  </si>
+  <si>
     <t>MONACO</t>
   </si>
   <si>
+    <t>17.25 -88.166667</t>
+  </si>
+  <si>
     <t>PAPUASIA NUOVA GUINEA</t>
   </si>
   <si>
+    <t>26.066799 50.511398</t>
+  </si>
+  <si>
     <t>TONGA</t>
   </si>
   <si>
+    <t>27.339199 90.4375</t>
+  </si>
+  <si>
     <t>TAGIKISTAN</t>
   </si>
   <si>
+    <t>-0.6022 73.084198</t>
+  </si>
+  <si>
     <t>BELIZE</t>
   </si>
   <si>
+    <t>20.495001 55.592899</t>
+  </si>
+  <si>
     <t>BAHREIN</t>
   </si>
   <si>
+    <t>25.349701 51.011902</t>
+  </si>
+  <si>
     <t>BHUTAN</t>
   </si>
   <si>
+    <t>-2.8497 -171.623795</t>
+  </si>
+  <si>
     <t>MALDIVE</t>
   </si>
   <si>
+    <t>45.9435 9.0985</t>
+  </si>
+  <si>
     <t>OMAN</t>
   </si>
   <si>
+    <t>-16.60521 -49.3263</t>
+  </si>
+  <si>
     <t>QATAR</t>
+  </si>
+  <si>
+    <t>51.42901 -0.75326</t>
   </si>
   <si>
     <t>KIRIBATI</t>
@@ -2667,7 +2787,7 @@
         <v>664</v>
       </c>
       <c r="G56" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2675,7 +2795,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C57" t="s">
         <v>25</v>
@@ -2690,7 +2810,7 @@
         <v>653</v>
       </c>
       <c r="G57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2698,7 +2818,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C58" t="s">
         <v>80</v>
@@ -2713,7 +2833,7 @@
         <v>651</v>
       </c>
       <c r="G58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2721,7 +2841,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C59" t="s">
         <v>25</v>
@@ -2736,7 +2856,7 @@
         <v>639</v>
       </c>
       <c r="G59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2744,7 +2864,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
@@ -2759,7 +2879,7 @@
         <v>635</v>
       </c>
       <c r="G60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2767,7 +2887,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
@@ -2782,7 +2902,7 @@
         <v>605</v>
       </c>
       <c r="G61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2790,7 +2910,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C62" t="s">
         <v>10</v>
@@ -2805,7 +2925,7 @@
         <v>594</v>
       </c>
       <c r="G62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2813,7 +2933,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C63" t="s">
         <v>17</v>
@@ -2828,7 +2948,7 @@
         <v>591</v>
       </c>
       <c r="G63" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2874,7 +2994,7 @@
         <v>573</v>
       </c>
       <c r="G65" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2882,7 +3002,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C66" t="s">
         <v>25</v>
@@ -2897,7 +3017,7 @@
         <v>562</v>
       </c>
       <c r="G66" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2905,7 +3025,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
@@ -2920,7 +3040,7 @@
         <v>554</v>
       </c>
       <c r="G67" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2928,7 +3048,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
@@ -2943,7 +3063,7 @@
         <v>554</v>
       </c>
       <c r="G68" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2951,7 +3071,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
@@ -2966,7 +3086,7 @@
         <v>487</v>
       </c>
       <c r="G69" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2974,7 +3094,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C70" t="s">
         <v>10</v>
@@ -2989,7 +3109,7 @@
         <v>472</v>
       </c>
       <c r="G70" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2997,7 +3117,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C71" t="s">
         <v>25</v>
@@ -3012,7 +3132,7 @@
         <v>461</v>
       </c>
       <c r="G71" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3020,7 +3140,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
@@ -3035,7 +3155,7 @@
         <v>429</v>
       </c>
       <c r="G72" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3043,7 +3163,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C73" t="s">
         <v>25</v>
@@ -3058,7 +3178,7 @@
         <v>424</v>
       </c>
       <c r="G73" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3066,7 +3186,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C74" t="s">
         <v>80</v>
@@ -3081,7 +3201,7 @@
         <v>417</v>
       </c>
       <c r="G74" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3089,7 +3209,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C75" t="s">
         <v>25</v>
@@ -3104,7 +3224,7 @@
         <v>413</v>
       </c>
       <c r="G75" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3112,7 +3232,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
@@ -3127,7 +3247,7 @@
         <v>404</v>
       </c>
       <c r="G76" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3135,7 +3255,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C77" t="s">
         <v>25</v>
@@ -3150,7 +3270,7 @@
         <v>398</v>
       </c>
       <c r="G77" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3158,7 +3278,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C78" t="s">
         <v>20</v>
@@ -3173,7 +3293,7 @@
         <v>389</v>
       </c>
       <c r="G78" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3181,7 +3301,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C79" t="s">
         <v>10</v>
@@ -3196,7 +3316,7 @@
         <v>388</v>
       </c>
       <c r="G79" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3204,7 +3324,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C80" t="s">
         <v>10</v>
@@ -3219,7 +3339,7 @@
         <v>375</v>
       </c>
       <c r="G80" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3227,7 +3347,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
@@ -3242,7 +3362,7 @@
         <v>362</v>
       </c>
       <c r="G81" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3250,7 +3370,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
@@ -3265,7 +3385,7 @@
         <v>323</v>
       </c>
       <c r="G82" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3273,7 +3393,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C83" t="s">
         <v>10</v>
@@ -3288,7 +3408,7 @@
         <v>319</v>
       </c>
       <c r="G83" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3296,7 +3416,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C84" t="s">
         <v>62</v>
@@ -3311,7 +3431,7 @@
         <v>303</v>
       </c>
       <c r="G84" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3319,7 +3439,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C85" t="s">
         <v>10</v>
@@ -3334,7 +3454,7 @@
         <v>301</v>
       </c>
       <c r="G85" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3342,7 +3462,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C86" t="s">
         <v>25</v>
@@ -3357,7 +3477,7 @@
         <v>294</v>
       </c>
       <c r="G86" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3365,7 +3485,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C87" t="s">
         <v>20</v>
@@ -3380,7 +3500,7 @@
         <v>294</v>
       </c>
       <c r="G87" t="s">
-        <v>181</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3403,7 +3523,7 @@
         <v>292</v>
       </c>
       <c r="G88" t="s">
-        <v>85</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3411,7 +3531,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C89" t="s">
         <v>25</v>
@@ -3426,7 +3546,7 @@
         <v>236</v>
       </c>
       <c r="G89" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3434,7 +3554,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C90" t="s">
         <v>80</v>
@@ -3449,7 +3569,7 @@
         <v>228</v>
       </c>
       <c r="G90" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3457,7 +3577,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
@@ -3472,7 +3592,7 @@
         <v>227</v>
       </c>
       <c r="G91" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3480,7 +3600,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
@@ -3495,7 +3615,7 @@
         <v>221</v>
       </c>
       <c r="G92" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3503,7 +3623,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C93" t="s">
         <v>7</v>
@@ -3518,7 +3638,7 @@
         <v>217</v>
       </c>
       <c r="G93" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3526,7 +3646,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C94" t="s">
         <v>25</v>
@@ -3541,7 +3661,7 @@
         <v>213</v>
       </c>
       <c r="G94" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3549,10 +3669,10 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C95" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D95" t="n">
         <v>88</v>
@@ -3564,7 +3684,7 @@
         <v>205</v>
       </c>
       <c r="G95" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3572,7 +3692,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C96" t="s">
         <v>80</v>
@@ -3587,7 +3707,7 @@
         <v>202</v>
       </c>
       <c r="G96" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3595,7 +3715,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C97" t="s">
         <v>25</v>
@@ -3610,7 +3730,7 @@
         <v>190</v>
       </c>
       <c r="G97" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3618,7 +3738,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C98" t="s">
         <v>25</v>
@@ -3633,7 +3753,7 @@
         <v>182</v>
       </c>
       <c r="G98" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3641,7 +3761,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C99" t="s">
         <v>10</v>
@@ -3656,7 +3776,7 @@
         <v>182</v>
       </c>
       <c r="G99" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3664,7 +3784,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
@@ -3679,7 +3799,7 @@
         <v>182</v>
       </c>
       <c r="G100" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3687,7 +3807,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C101" t="s">
         <v>25</v>
@@ -3702,7 +3822,7 @@
         <v>179</v>
       </c>
       <c r="G101" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3710,7 +3830,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C102" t="s">
         <v>17</v>
@@ -3725,7 +3845,7 @@
         <v>171</v>
       </c>
       <c r="G102" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3733,7 +3853,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C103" t="s">
         <v>10</v>
@@ -3748,7 +3868,7 @@
         <v>169</v>
       </c>
       <c r="G103" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3756,7 +3876,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C104" t="s">
         <v>7</v>
@@ -3771,7 +3891,7 @@
         <v>169</v>
       </c>
       <c r="G104" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3779,7 +3899,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C105" t="s">
         <v>25</v>
@@ -3794,7 +3914,7 @@
         <v>167</v>
       </c>
       <c r="G105" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3802,7 +3922,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C106" t="s">
         <v>25</v>
@@ -3817,7 +3937,7 @@
         <v>121</v>
       </c>
       <c r="G106" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3825,7 +3945,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C107" t="s">
         <v>17</v>
@@ -3840,7 +3960,7 @@
         <v>117</v>
       </c>
       <c r="G107" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3848,7 +3968,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C108" t="s">
         <v>25</v>
@@ -3863,7 +3983,7 @@
         <v>113</v>
       </c>
       <c r="G108" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3871,7 +3991,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C109" t="s">
         <v>10</v>
@@ -3886,7 +4006,7 @@
         <v>112</v>
       </c>
       <c r="G109" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3894,7 +4014,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
@@ -3909,7 +4029,7 @@
         <v>111</v>
       </c>
       <c r="G110" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3917,7 +4037,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
@@ -3932,7 +4052,7 @@
         <v>100</v>
       </c>
       <c r="G111" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3940,7 +4060,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C112" t="s">
         <v>10</v>
@@ -3955,7 +4075,7 @@
         <v>97</v>
       </c>
       <c r="G112" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3963,7 +4083,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C113" t="s">
         <v>10</v>
@@ -3978,7 +4098,7 @@
         <v>95</v>
       </c>
       <c r="G113" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3986,7 +4106,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C114" t="s">
         <v>25</v>
@@ -4001,7 +4121,7 @@
         <v>85</v>
       </c>
       <c r="G114" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4009,7 +4129,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C115" t="s">
         <v>17</v>
@@ -4024,7 +4144,7 @@
         <v>83</v>
       </c>
       <c r="G115" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4032,7 +4152,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C116" t="s">
         <v>25</v>
@@ -4047,7 +4167,7 @@
         <v>82</v>
       </c>
       <c r="G116" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4055,7 +4175,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C117" t="s">
         <v>20</v>
@@ -4070,7 +4190,7 @@
         <v>80</v>
       </c>
       <c r="G117" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4078,7 +4198,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C118" t="s">
         <v>80</v>
@@ -4093,7 +4213,7 @@
         <v>77</v>
       </c>
       <c r="G118" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4101,7 +4221,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C119" t="s">
         <v>25</v>
@@ -4116,7 +4236,7 @@
         <v>76</v>
       </c>
       <c r="G119" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4124,7 +4244,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C120" t="s">
         <v>25</v>
@@ -4139,7 +4259,7 @@
         <v>76</v>
       </c>
       <c r="G120" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4147,7 +4267,7 @@
         <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C121" t="s">
         <v>80</v>
@@ -4162,7 +4282,7 @@
         <v>73</v>
       </c>
       <c r="G121" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4170,7 +4290,7 @@
         <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C122" t="s">
         <v>25</v>
@@ -4185,7 +4305,7 @@
         <v>70</v>
       </c>
       <c r="G122" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4193,7 +4313,7 @@
         <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C123" t="s">
         <v>25</v>
@@ -4208,7 +4328,7 @@
         <v>68</v>
       </c>
       <c r="G123" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4216,7 +4336,7 @@
         <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C124" t="s">
         <v>10</v>
@@ -4231,7 +4351,7 @@
         <v>66</v>
       </c>
       <c r="G124" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4239,7 +4359,7 @@
         <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C125" t="s">
         <v>10</v>
@@ -4254,7 +4374,7 @@
         <v>64</v>
       </c>
       <c r="G125" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4262,7 +4382,7 @@
         <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C126" t="s">
         <v>25</v>
@@ -4277,7 +4397,7 @@
         <v>54</v>
       </c>
       <c r="G126" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4285,7 +4405,7 @@
         <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C127" t="s">
         <v>25</v>
@@ -4300,7 +4420,7 @@
         <v>53</v>
       </c>
       <c r="G127" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4308,7 +4428,7 @@
         <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C128" t="s">
         <v>10</v>
@@ -4323,7 +4443,7 @@
         <v>53</v>
       </c>
       <c r="G128" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4331,7 +4451,7 @@
         <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C129" t="s">
         <v>10</v>
@@ -4346,7 +4466,7 @@
         <v>47</v>
       </c>
       <c r="G129" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4354,7 +4474,7 @@
         <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C130" t="s">
         <v>25</v>
@@ -4369,7 +4489,7 @@
         <v>45</v>
       </c>
       <c r="G130" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4377,7 +4497,7 @@
         <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C131" t="s">
         <v>25</v>
@@ -4392,7 +4512,7 @@
         <v>45</v>
       </c>
       <c r="G131" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4400,7 +4520,7 @@
         <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C132" t="s">
         <v>10</v>
@@ -4415,7 +4535,7 @@
         <v>44</v>
       </c>
       <c r="G132" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4423,7 +4543,7 @@
         <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
@@ -4438,7 +4558,7 @@
         <v>42</v>
       </c>
       <c r="G133" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4446,10 +4566,10 @@
         <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C134" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D134" t="n">
         <v>15</v>
@@ -4461,7 +4581,7 @@
         <v>42</v>
       </c>
       <c r="G134" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4469,7 +4589,7 @@
         <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C135" t="s">
         <v>25</v>
@@ -4484,7 +4604,7 @@
         <v>36</v>
       </c>
       <c r="G135" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4492,7 +4612,7 @@
         <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C136" t="s">
         <v>10</v>
@@ -4507,7 +4627,7 @@
         <v>36</v>
       </c>
       <c r="G136" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4515,7 +4635,7 @@
         <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C137" t="s">
         <v>10</v>
@@ -4530,7 +4650,7 @@
         <v>36</v>
       </c>
       <c r="G137" t="s">
-        <v>281</v>
+        <v>187</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4599,7 +4719,7 @@
         <v>24</v>
       </c>
       <c r="G140" t="s">
-        <v>78</v>
+        <v>287</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4607,7 +4727,7 @@
         <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C141" t="s">
         <v>10</v>
@@ -4622,7 +4742,7 @@
         <v>24</v>
       </c>
       <c r="G141" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4630,7 +4750,7 @@
         <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C142" t="s">
         <v>80</v>
@@ -4645,7 +4765,7 @@
         <v>21</v>
       </c>
       <c r="G142" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4653,7 +4773,7 @@
         <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C143" t="s">
         <v>7</v>
@@ -4668,7 +4788,7 @@
         <v>21</v>
       </c>
       <c r="G143" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4676,7 +4796,7 @@
         <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C144" t="s">
         <v>7</v>
@@ -4691,7 +4811,7 @@
         <v>20</v>
       </c>
       <c r="G144" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4699,7 +4819,7 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C145" t="s">
         <v>17</v>
@@ -4713,14 +4833,16 @@
       <c r="F145" t="n">
         <v>19</v>
       </c>
-      <c r="G145" t="s"/>
+      <c r="G145" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C146" t="s">
         <v>25</v>
@@ -4734,14 +4856,16 @@
       <c r="F146" t="n">
         <v>18</v>
       </c>
-      <c r="G146" t="s"/>
+      <c r="G146" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C147" t="s">
         <v>25</v>
@@ -4755,14 +4879,16 @@
       <c r="F147" t="n">
         <v>17</v>
       </c>
-      <c r="G147" t="s"/>
+      <c r="G147" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C148" t="s">
         <v>10</v>
@@ -4776,14 +4902,16 @@
       <c r="F148" t="n">
         <v>17</v>
       </c>
-      <c r="G148" t="s"/>
+      <c r="G148" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C149" t="s">
         <v>10</v>
@@ -4797,14 +4925,16 @@
       <c r="F149" t="n">
         <v>15</v>
       </c>
-      <c r="G149" t="s"/>
+      <c r="G149" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C150" t="s">
         <v>20</v>
@@ -4818,14 +4948,16 @@
       <c r="F150" t="n">
         <v>13</v>
       </c>
-      <c r="G150" t="s"/>
+      <c r="G150" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C151" t="s">
         <v>10</v>
@@ -4839,14 +4971,16 @@
       <c r="F151" t="n">
         <v>10</v>
       </c>
-      <c r="G151" t="s"/>
+      <c r="G151" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C152" t="s">
         <v>25</v>
@@ -4860,14 +4994,16 @@
       <c r="F152" t="n">
         <v>9</v>
       </c>
-      <c r="G152" t="s"/>
+      <c r="G152" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C153" t="s">
         <v>10</v>
@@ -4881,14 +5017,16 @@
       <c r="F153" t="n">
         <v>9</v>
       </c>
-      <c r="G153" t="s"/>
+      <c r="G153" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="C154" t="s">
         <v>25</v>
@@ -4902,17 +5040,19 @@
       <c r="F154" t="n">
         <v>7</v>
       </c>
-      <c r="G154" t="s"/>
+      <c r="G154" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="C155" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D155" t="n">
         <v>2</v>
@@ -4923,14 +5063,16 @@
       <c r="F155" t="n">
         <v>7</v>
       </c>
-      <c r="G155" t="s"/>
+      <c r="G155" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="C156" t="s">
         <v>25</v>
@@ -4944,17 +5086,19 @@
       <c r="F156" t="n">
         <v>6</v>
       </c>
-      <c r="G156" t="s"/>
+      <c r="G156" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="C157" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D157" t="n">
         <v>3</v>
@@ -4965,14 +5109,16 @@
       <c r="F157" t="n">
         <v>6</v>
       </c>
-      <c r="G157" t="s"/>
+      <c r="G157" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="C158" t="s">
         <v>80</v>
@@ -4986,14 +5132,16 @@
       <c r="F158" t="n">
         <v>5</v>
       </c>
-      <c r="G158" t="s"/>
+      <c r="G158" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="C159" t="s">
         <v>17</v>
@@ -5007,14 +5155,16 @@
       <c r="F159" t="n">
         <v>5</v>
       </c>
-      <c r="G159" t="s"/>
+      <c r="G159" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="C160" t="s">
         <v>10</v>
@@ -5028,14 +5178,16 @@
       <c r="F160" t="n">
         <v>4</v>
       </c>
-      <c r="G160" t="s"/>
+      <c r="G160" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C161" t="s">
         <v>10</v>
@@ -5049,14 +5201,16 @@
       <c r="F161" t="n">
         <v>4</v>
       </c>
-      <c r="G161" t="s"/>
+      <c r="G161" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="C162" t="s">
         <v>25</v>
@@ -5070,14 +5224,16 @@
       <c r="F162" t="n">
         <v>3</v>
       </c>
-      <c r="G162" t="s"/>
+      <c r="G162" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="C163" t="s">
         <v>80</v>
@@ -5091,14 +5247,16 @@
       <c r="F163" t="n">
         <v>3</v>
       </c>
-      <c r="G163" t="s"/>
+      <c r="G163" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="C164" t="s">
         <v>80</v>
@@ -5112,14 +5270,16 @@
       <c r="F164" t="n">
         <v>3</v>
       </c>
-      <c r="G164" t="s"/>
+      <c r="G164" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="C165" t="s">
         <v>80</v>
@@ -5133,14 +5293,16 @@
       <c r="F165" t="n">
         <v>3</v>
       </c>
-      <c r="G165" t="s"/>
+      <c r="G165" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="C166" t="s">
         <v>20</v>
@@ -5154,17 +5316,19 @@
       <c r="F166" t="n">
         <v>3</v>
       </c>
-      <c r="G166" t="s"/>
+      <c r="G166" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="C167" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -5175,14 +5339,16 @@
       <c r="F167" t="n">
         <v>3</v>
       </c>
-      <c r="G167" t="s"/>
+      <c r="G167" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="C168" t="s">
         <v>25</v>
@@ -5196,14 +5362,16 @@
       <c r="F168" t="n">
         <v>2</v>
       </c>
-      <c r="G168" t="s"/>
+      <c r="G168" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="C169" t="s">
         <v>25</v>
@@ -5217,14 +5385,16 @@
       <c r="F169" t="n">
         <v>2</v>
       </c>
-      <c r="G169" t="s"/>
+      <c r="G169" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="C170" t="s">
         <v>25</v>
@@ -5238,14 +5408,16 @@
       <c r="F170" t="n">
         <v>2</v>
       </c>
-      <c r="G170" t="s"/>
+      <c r="G170" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="C171" t="s">
         <v>80</v>
@@ -5259,14 +5431,16 @@
       <c r="F171" t="n">
         <v>2</v>
       </c>
-      <c r="G171" t="s"/>
+      <c r="G171" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="C172" t="s">
         <v>80</v>
@@ -5280,14 +5454,16 @@
       <c r="F172" t="n">
         <v>2</v>
       </c>
-      <c r="G172" t="s"/>
+      <c r="G172" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="C173" t="s">
         <v>80</v>
@@ -5301,14 +5477,16 @@
       <c r="F173" t="n">
         <v>2</v>
       </c>
-      <c r="G173" t="s"/>
+      <c r="G173" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="C174" t="s">
         <v>17</v>
@@ -5322,17 +5500,19 @@
       <c r="F174" t="n">
         <v>2</v>
       </c>
-      <c r="G174" t="s"/>
+      <c r="G174" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
@@ -5343,17 +5523,19 @@
       <c r="F175" t="n">
         <v>2</v>
       </c>
-      <c r="G175" t="s"/>
+      <c r="G175" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="C176" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
@@ -5364,14 +5546,16 @@
       <c r="F176" t="n">
         <v>2</v>
       </c>
-      <c r="G176" t="s"/>
+      <c r="G176" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="C177" t="s">
         <v>25</v>
@@ -5385,14 +5569,16 @@
       <c r="F177" t="n">
         <v>1</v>
       </c>
-      <c r="G177" t="s"/>
+      <c r="G177" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="C178" t="s">
         <v>80</v>
@@ -5406,14 +5592,16 @@
       <c r="F178" t="n">
         <v>1</v>
       </c>
-      <c r="G178" t="s"/>
+      <c r="G178" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="C179" t="s">
         <v>10</v>
@@ -5427,14 +5615,16 @@
       <c r="F179" t="n">
         <v>1</v>
       </c>
-      <c r="G179" t="s"/>
+      <c r="G179" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="C180" t="s">
         <v>10</v>
@@ -5448,14 +5638,16 @@
       <c r="F180" t="n">
         <v>1</v>
       </c>
-      <c r="G180" t="s"/>
+      <c r="G180" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="C181" t="s">
         <v>10</v>
@@ -5469,14 +5661,16 @@
       <c r="F181" t="n">
         <v>1</v>
       </c>
-      <c r="G181" t="s"/>
+      <c r="G181" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="C182" t="s">
         <v>10</v>
@@ -5490,14 +5684,16 @@
       <c r="F182" t="n">
         <v>1</v>
       </c>
-      <c r="G182" t="s"/>
+      <c r="G182" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="C183" t="s">
         <v>10</v>
@@ -5511,17 +5707,19 @@
       <c r="F183" t="n">
         <v>1</v>
       </c>
-      <c r="G183" t="s"/>
+      <c r="G183" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="C184" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D184" t="n">
         <v>1</v>
@@ -5539,10 +5737,10 @@
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="C185" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="D185" t="n">
         <v>51</v>
@@ -5560,10 +5758,10 @@
         <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="C186" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="D186" t="n">
         <v>59</v>
@@ -5581,7 +5779,7 @@
         <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
